--- a/Guia 3 Matrices.xlsx
+++ b/Guia 3 Matrices.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="474" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27BE1919-59AF-468F-ADAA-1AE27A3D460E}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olga Lucia\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1721A25F-9029-4022-AA4E-ACC7A4EE5CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBS" sheetId="1" r:id="rId1"/>
@@ -40,10 +45,19 @@
   <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{886FFA1E-8E47-4B1A-A605-AAA4A0FC8FE4}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     faltan otras del RBS</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -1114,48 +1128,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1164,16 +1136,58 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1527,23 +1541,23 @@
   </sheetPr>
   <dimension ref="B2:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="42.75" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="2:8" ht="43.5" customHeight="1">
       <c r="B3" s="11" t="s">
@@ -1560,7 +1574,7 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:8" ht="43.5" customHeight="1">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1573,7 +1587,7 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="2:8" ht="43.5" customHeight="1">
-      <c r="B5" s="35"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1583,7 +1597,7 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:8" ht="43.5" customHeight="1">
-      <c r="B6" s="35"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1593,7 +1607,7 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:8" ht="43.5" customHeight="1">
-      <c r="B7" s="35"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1603,7 +1617,7 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:8" ht="43.5" customHeight="1">
-      <c r="B8" s="35"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1614,10 +1628,10 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:8" ht="29.25" customHeight="1">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1626,16 +1640,16 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="3"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" ht="29.25">
-      <c r="B11" s="35"/>
+    <row r="11" spans="2:8" ht="28.5">
+      <c r="B11" s="41"/>
       <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
@@ -1645,8 +1659,8 @@
       <c r="F11" s="3"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" ht="43.5">
-      <c r="B12" s="35"/>
+    <row r="12" spans="2:8" ht="42.75">
+      <c r="B12" s="41"/>
       <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
@@ -1656,8 +1670,8 @@
       <c r="F12" s="3"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="2:8" ht="57.75">
-      <c r="B13" s="35"/>
+    <row r="13" spans="2:8" ht="57">
+      <c r="B13" s="41"/>
       <c r="C13" s="6" t="s">
         <v>23</v>
       </c>
@@ -1666,8 +1680,8 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="43.5">
-      <c r="B14" s="35" t="s">
+    <row r="14" spans="2:8" ht="42.75">
+      <c r="B14" s="41" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1678,8 +1692,8 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:8" ht="43.5">
-      <c r="B15" s="35"/>
+    <row r="15" spans="2:8" ht="28.5">
+      <c r="B15" s="41"/>
       <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
@@ -1689,8 +1703,8 @@
       <c r="F15" s="3"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:8" ht="29.25">
-      <c r="B16" s="35"/>
+    <row r="16" spans="2:8" ht="28.5">
+      <c r="B16" s="41"/>
       <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
@@ -1699,11 +1713,11 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="35" t="s">
+    <row r="17" spans="2:8" ht="14.25">
+      <c r="B17" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="42" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1712,16 +1726,16 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="3"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" ht="29.25">
-      <c r="B19" s="35"/>
+    <row r="19" spans="2:8" ht="28.5">
+      <c r="B19" s="41"/>
       <c r="C19" s="6" t="s">
         <v>36</v>
       </c>
@@ -1731,8 +1745,8 @@
       <c r="F19" s="3"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8" ht="29.25">
-      <c r="B20" s="35"/>
+    <row r="20" spans="2:8" ht="28.5">
+      <c r="B20" s="41"/>
       <c r="C20" s="6" t="s">
         <v>38</v>
       </c>
@@ -1742,8 +1756,8 @@
       <c r="F20" s="3"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="2:8" ht="29.25">
-      <c r="B21" s="35"/>
+    <row r="21" spans="2:8" ht="28.5">
+      <c r="B21" s="41"/>
       <c r="C21" s="6" t="s">
         <v>40</v>
       </c>
@@ -1752,8 +1766,8 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="34" t="s">
+    <row r="22" spans="2:8" ht="14.25">
+      <c r="B22" s="40" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1764,8 +1778,8 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8" ht="29.25">
-      <c r="B23" s="34"/>
+    <row r="23" spans="2:8" ht="28.5">
+      <c r="B23" s="40"/>
       <c r="C23" s="6" t="s">
         <v>45</v>
       </c>
@@ -1775,8 +1789,8 @@
       <c r="F23" s="3"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="2:8" ht="43.5">
-      <c r="B24" s="34"/>
+    <row r="24" spans="2:8" ht="42.75">
+      <c r="B24" s="40"/>
       <c r="C24" s="6" t="s">
         <v>47</v>
       </c>
@@ -1786,8 +1800,8 @@
       <c r="F24" s="3"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="2:8" ht="43.5">
-      <c r="B25" s="34"/>
+    <row r="25" spans="2:8" ht="42.75">
+      <c r="B25" s="40"/>
       <c r="C25" s="6" t="s">
         <v>49</v>
       </c>
@@ -1797,8 +1811,8 @@
       <c r="F25" s="3"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="34"/>
+    <row r="26" spans="2:8" ht="14.25">
+      <c r="B26" s="40"/>
       <c r="C26" s="6" t="s">
         <v>51</v>
       </c>
@@ -1807,11 +1821,11 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="34" t="s">
+    <row r="27" spans="2:8" ht="14.25">
+      <c r="B27" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="43" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -1820,16 +1834,16 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="34"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="3"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8" ht="29.25">
-      <c r="B29" s="34"/>
+    <row r="29" spans="2:8" ht="14.25">
+      <c r="B29" s="40"/>
       <c r="C29" s="6" t="s">
         <v>57</v>
       </c>
@@ -1838,9 +1852,9 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:8" ht="29.25">
-      <c r="B30" s="34"/>
-      <c r="C30" s="36" t="s">
+    <row r="30" spans="2:8" ht="28.5">
+      <c r="B30" s="40"/>
+      <c r="C30" s="42" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -1849,19 +1863,19 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="34"/>
-      <c r="C31" s="36"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F31" s="3"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8" ht="29.25">
-      <c r="B32" s="34" t="s">
+    <row r="32" spans="2:8" ht="28.5">
+      <c r="B32" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="42" t="s">
         <v>63</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -1869,16 +1883,16 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="34"/>
-      <c r="C33" s="36"/>
+    <row r="33" spans="2:8" ht="14.25">
+      <c r="B33" s="40"/>
+      <c r="C33" s="42"/>
       <c r="D33" s="14" t="s">
         <v>65</v>
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8" ht="29.25">
-      <c r="B34" s="34"/>
+    <row r="34" spans="2:8" ht="28.5">
+      <c r="B34" s="40"/>
       <c r="C34" s="13" t="s">
         <v>66</v>
       </c>
@@ -1887,8 +1901,8 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="2:8" ht="43.5">
-      <c r="B35" s="38"/>
+    <row r="35" spans="2:8" ht="42.75">
+      <c r="B35" s="44"/>
       <c r="C35" s="24" t="s">
         <v>68</v>
       </c>
@@ -1897,8 +1911,8 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8" ht="29.25">
-      <c r="B36" s="38"/>
+    <row r="36" spans="2:8" ht="28.5">
+      <c r="B36" s="44"/>
       <c r="C36" s="24" t="s">
         <v>70</v>
       </c>
@@ -1907,8 +1921,8 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="2:8" ht="43.5">
-      <c r="B37" s="38"/>
+    <row r="37" spans="2:8" ht="42.75">
+      <c r="B37" s="44"/>
       <c r="C37" s="24" t="s">
         <v>72</v>
       </c>
@@ -1917,8 +1931,8 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8" ht="29.25">
-      <c r="B38" s="34"/>
+    <row r="38" spans="2:8" ht="28.5">
+      <c r="B38" s="40"/>
       <c r="C38" s="26" t="s">
         <v>74</v>
       </c>
@@ -1928,8 +1942,8 @@
       <c r="F38" s="3"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="2:8" ht="29.25">
-      <c r="B39" s="34" t="s">
+    <row r="39" spans="2:8" ht="28.5">
+      <c r="B39" s="40" t="s">
         <v>76</v>
       </c>
       <c r="C39" s="14" t="s">
@@ -1940,8 +1954,8 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="2:8" ht="29.25">
-      <c r="B40" s="34"/>
+    <row r="40" spans="2:8" ht="28.5">
+      <c r="B40" s="40"/>
       <c r="C40" s="14" t="s">
         <v>79</v>
       </c>
@@ -1950,8 +1964,8 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8" ht="29.25">
-      <c r="B41" s="34"/>
+    <row r="41" spans="2:8" ht="28.5">
+      <c r="B41" s="40"/>
       <c r="C41" s="14" t="s">
         <v>81</v>
       </c>
@@ -1984,56 +1998,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC07ED57-91D8-46A7-9F6B-6200CE87F858}">
   <dimension ref="B2:X16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="BP4" sqref="BP4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
     <col min="8" max="8" width="24" style="1" customWidth="1"/>
     <col min="9" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="15" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="57.75">
-      <c r="B2" s="48" t="s">
+    <row r="2" spans="2:24" ht="60">
+      <c r="B2" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="36" t="s">
         <v>93</v>
       </c>
       <c r="N2" s="3"/>
@@ -2087,7 +2101,7 @@
       <c r="V3" s="3"/>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="2:24" ht="87">
+    <row r="4" spans="2:24" ht="85.5">
       <c r="B4" s="17" t="s">
         <v>100</v>
       </c>
@@ -2126,7 +2140,7 @@
       <c r="V4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="2:24" ht="87">
+    <row r="5" spans="2:24" ht="71.25">
       <c r="B5" s="17" t="s">
         <v>107</v>
       </c>
@@ -2165,7 +2179,7 @@
       <c r="V5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="2:24" ht="72.75">
+    <row r="6" spans="2:24" ht="71.25">
       <c r="B6" s="17" t="s">
         <v>114</v>
       </c>
@@ -2204,7 +2218,7 @@
       <c r="V6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="2:24" ht="72.75">
+    <row r="7" spans="2:24" ht="71.25">
       <c r="B7" s="17" t="s">
         <v>121</v>
       </c>
@@ -2243,7 +2257,7 @@
       <c r="V7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="2:24" ht="43.5">
+    <row r="8" spans="2:24" ht="42.75">
       <c r="B8" s="17" t="s">
         <v>128</v>
       </c>
@@ -2282,7 +2296,7 @@
       <c r="V8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="2:24" ht="57.75">
+    <row r="9" spans="2:24" ht="42.75">
       <c r="B9" s="17" t="s">
         <v>135</v>
       </c>
@@ -2321,7 +2335,7 @@
       <c r="V9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="2:24" ht="57.75">
+    <row r="10" spans="2:24" ht="57">
       <c r="B10" s="17" t="s">
         <v>142</v>
       </c>
@@ -2360,7 +2374,7 @@
       <c r="V10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="2:24" ht="57.75">
+    <row r="11" spans="2:24" ht="57">
       <c r="B11" s="17" t="s">
         <v>149</v>
       </c>
@@ -2593,57 +2607,57 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="53" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="39" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="101.25">
+    <row r="3" spans="1:5" ht="100.5">
       <c r="A3" s="31" t="s">
         <v>193</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:5" ht="152.25" customHeight="1">
       <c r="A4" s="31" t="s">
@@ -2666,36 +2680,36 @@
       <c r="A5" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="1:5" ht="78" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="1:5" ht="66.75" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+    </row>
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="31" t="s">
         <v>206</v>
       </c>
@@ -2710,21 +2724,21 @@
       <c r="A9" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
